--- a/Case/test_case.xlsx
+++ b/Case/test_case.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Interface_framework\Case\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C083AC-24C7-4E40-98C0-ED107E259C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2988" yWindow="1392" windowWidth="17820" windowHeight="10464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="1395" windowWidth="17820" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>case编号</t>
   </si>
   <si>
+    <t>用例名称</t>
+  </si>
+  <si>
     <t>是否执行</t>
   </si>
   <si>
@@ -58,50 +50,66 @@
   </si>
   <si>
     <t>实际结果</t>
+  </si>
+  <si>
+    <t>响应数据</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>/accounts/login/</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"username":"siuweide", "password":"123456"}</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>测试成功</t>
+  </si>
+  <si>
+    <t>{"status": 200, "message": "login success"}</t>
+  </si>
+  <si>
+    <t>查询所有发布会</t>
+  </si>
+  <si>
+    <t>/api/get_event_list/</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>{"status": 200, "message": "success", "data": []}</t>
+  </si>
+  <si>
+    <t>case_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/accounts/login/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"siuweide", "password":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
+    <t>case_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,9 +163,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -205,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -240,7 +245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -417,93 +422,132 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Case/test_case.xlsx
+++ b/Case/test_case.xlsx
@@ -1,133 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="1395" windowWidth="17820" windowHeight="10470"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2985" yWindow="1395" windowWidth="17820" windowHeight="10470" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
-  <si>
-    <t>case编号</t>
-  </si>
-  <si>
-    <t>用例名称</t>
-  </si>
-  <si>
-    <t>是否执行</t>
-  </si>
-  <si>
-    <t>前置条件</t>
-  </si>
-  <si>
-    <t>依赖key</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>cookie操作</t>
-  </si>
-  <si>
-    <t>header操作</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>实际结果</t>
-  </si>
-  <si>
-    <t>响应数据</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>/accounts/login/</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{"username":"siuweide", "password":"123456"}</t>
-  </si>
-  <si>
-    <t>write</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>测试成功</t>
-  </si>
-  <si>
-    <t>{"status": 200, "message": "login success"}</t>
-  </si>
-  <si>
-    <t>查询所有发布会</t>
-  </si>
-  <si>
-    <t>/api/get_event_list/</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>{"status": 200, "message": "success", "data": []}</t>
-  </si>
-  <si>
-    <t>case_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -146,24 +53,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -429,130 +330,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="10.125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col width="15.75" customWidth="1" min="1" max="1"/>
+    <col width="14.5" customWidth="1" min="2" max="2"/>
+    <col width="21.375" customWidth="1" min="4" max="4"/>
+    <col width="9.375" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="11.5" customWidth="1" min="9" max="9"/>
+    <col width="10.125" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="10.375" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>依赖key</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cookie操作</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>header操作</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>响应数据</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>case_01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>/accounts/login/</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"username":"siuweide", "password":"123456"}</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>测试成功</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{"status": 200, "message": "login success"}</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>case_02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>添加发布会</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>/api/add_event/</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{"eid":1, "name":"测试发布会", "limit":100, "status":"1", "address":"zs", "start_time":"2020-08-03 10:22:30"}</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>测试成功</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{"status": 200, "message": "add event success"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>case_03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>查询所有发布会</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>/api/get_event_list/</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>测试成功</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{"status": 200, "message": "success", "data": []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>case_04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>取消发布会</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>case_03&gt;data[0].id</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>event_id</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>/api/cancel_event/</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{"event_id":""}</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>测试失败</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{"status": 10202, "message": "event_id is not exists"}</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Case/test_case.xlsx
+++ b/Case/test_case.xlsx
@@ -323,7 +323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -335,10 +335,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -440,7 +440,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/accounts/login/</t>
+          <t>/api/mgr/signin</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -460,7 +460,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>ret</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -470,168 +470,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"status": 200, "message": "login success"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>case_02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>添加发布会</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>/api/add_event/</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>{"eid":1, "name":"测试发布会", "limit":100, "status":"1", "address":"zs", "start_time":"2020-08-03 10:22:30"}</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>测试成功</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"status": 200, "message": "add event success"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>case_03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>查询所有发布会</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>/api/get_event_list/</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>测试成功</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>{"status": 200, "message": "success", "data": []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>case_04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>取消发布会</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>case_03&gt;data[0].id</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>event_id</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>/api/cancel_event/</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>{"event_id":""}</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>测试失败</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>{"status": 10202, "message": "event_id is not exists"}</t>
+          <t>{"ret": 0}</t>
         </is>
       </c>
     </row>

--- a/Case/test_case.xlsx
+++ b/Case/test_case.xlsx
@@ -323,7 +323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -335,10 +335,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -430,7 +430,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>登录</t>
+          <t>登录成功</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,6 +471,48 @@
       <c r="M2" t="inlineStr">
         <is>
           <t>{"ret": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>登录密码错误</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>/api/mgr/signin</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{"username":"siuweide", "password":"1234566"}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>用户名或密码错误</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>测试失败</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{"ret": 1, "msg": "\u7528\u6237\u540d\u6216\u5bc6\u7801\u9519\u8bef"}</t>
         </is>
       </c>
     </row>

--- a/Case/test_case.xlsx
+++ b/Case/test_case.xlsx
@@ -1,40 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2985" yWindow="1395" windowWidth="17820" windowHeight="10470" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2985" yWindow="1395" windowWidth="17820" windowHeight="10470"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+  <si>
+    <t>case编号</t>
+  </si>
+  <si>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>是否执行</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>依赖key</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>cookie操作</t>
+  </si>
+  <si>
+    <t>header操作</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>响应数据</t>
+  </si>
+  <si>
+    <t>case_01</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>/api/mgr/signin</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"username":"siuweide", "password":"123456"}</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>测试成功</t>
+  </si>
+  <si>
+    <t>{"ret": 0}</t>
+  </si>
+  <si>
+    <t>登录密码错误</t>
+  </si>
+  <si>
+    <t>{"username":"siuweide", "password":"1234566"}</t>
+  </si>
+  <si>
+    <t>用户名或密码错误</t>
+  </si>
+  <si>
+    <t>测试失败</t>
+  </si>
+  <si>
+    <t>{"ret": 1, "msg": "\u7528\u6237\u540d\u6216\u5bc6\u7801\u9519\u8bef"}</t>
+  </si>
+  <si>
+    <t>case_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,18 +145,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -323,201 +421,139 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col width="15.75" customWidth="1" min="1" max="1"/>
-    <col width="14.5" customWidth="1" min="2" max="2"/>
-    <col width="21.375" customWidth="1" min="4" max="4"/>
-    <col width="9.375" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="11.5" customWidth="1" min="9" max="9"/>
-    <col width="10.125" customWidth="1" min="10" max="10"/>
-    <col width="11" customWidth="1" min="11" max="11"/>
-    <col width="10.375" customWidth="1" min="12" max="12"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>case编号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>用例名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>是否执行</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>前置条件</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>依赖key</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>cookie操作</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>header操作</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>预期结果</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>实际结果</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>响应数据</t>
-        </is>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>case_01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>登录成功</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>/api/mgr/signin</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>{"username":"siuweide", "password":"123456"}</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>测试成功</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{"ret": 0}</t>
-        </is>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>登录密码错误</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>/api/mgr/signin</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>{"username":"siuweide", "password":"1234566"}</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>用户名或密码错误</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>测试失败</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"ret": 1, "msg": "\u7528\u6237\u540d\u6216\u5bc6\u7801\u9519\u8bef"}</t>
-        </is>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>